--- a/biology/Médecine/Répertoire_de_la_pharmacologie/Répertoire_de_la_pharmacologie.xlsx
+++ b/biology/Médecine/Répertoire_de_la_pharmacologie/Répertoire_de_la_pharmacologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
+          <t>Répertoire_de_la_pharmacologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Répertoire de la pharmacologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
+          <t>Répertoire_de_la_pharmacologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Médicaments de l'insuffisance cardiaque
-Glycosides digitaliques
-La digoxine n'a plus qu'une place limitée dans la prise en charge des patients atteints d'insuffisance cardiaque, mais elle est parfois utilisée dans la fibrillation auriculaire pour ralentir la réponse ventriculaire.
+          <t>Médicaments de l'insuffisance cardiaque</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Glycosides digitaliques</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La digoxine n'a plus qu'une place limitée dans la prise en charge des patients atteints d'insuffisance cardiaque, mais elle est parfois utilisée dans la fibrillation auriculaire pour ralentir la réponse ventriculaire.
 La digitoxine a le même coefficient thérapeutique étroit que la digoxine et, à effet inotrope égal, elles ont la même probabilité d'entraîner des effets indésirables. Elles diffèrent cependant par leurs propriétés pharmacocinétique (36 heures pour la digoxine lorsque la fonction rénale est normale, 6 jours pour la digitoxine). Il n'existe actuellement plus de spécialité à base de digitoxine sur le marché belge.
 La métildigoxine a probablement les mêmes propriétés, effets indésirables et interactions que la digoxine. Étant donné que l'expérience avec la digoxine est beaucoup plus grande, l'utilisation de métildigoxine n'est pas justifiée.
 Indications
@@ -535,12 +555,117 @@
 Il faut tenir compte de la fonction rénale (surtout pour la digoxine). La plupart des cas de toxicité sont dus à des doses trop élevées, p. ex. lorsqu'on ne tient pas compte de facteurs tels que l'âge ou une insuffisance rénale.
 En cas d'intoxication sévère, l'administration d'anticorps antidigoxine peut être indiquée.
 Interactions
-Antiangoreux
-Médicament utilisé dans le traitement de l'insuffisance coronarienne (défaut d'irrigation du muscle cardiaque par les artères coronaires).
-Antiarythmiques
-Médicament destiné à corriger certains troubles du rythme cardiaque, surtout les contractions trop rapides ou inefficaces.
-Antihypertenseurs
-Médicament utilisé dans le traitement de l'hypertension artérielle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Répertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Système cardiovasculaire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Antiangoreux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médicament utilisé dans le traitement de l'insuffisance coronarienne (défaut d'irrigation du muscle cardiaque par les artères coronaires).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Répertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Système cardiovasculaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Antiarythmiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médicament destiné à corriger certains troubles du rythme cardiaque, surtout les contractions trop rapides ou inefficaces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Répertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Système cardiovasculaire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Antihypertenseurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médicament utilisé dans le traitement de l'hypertension artérielle.
 FORMES PRINCIPALES
 Le choix entre les différents antihypertenseurs, comportant éventuellement une association de plusieurs d'entre eux, est décidé en fonction de l'âge, des pathologies associées, de la tolérance au produit.
 — Les antihypertenseurs centraux (clonidine, méthyldopa) agissent sur la commande cérébrale de l'appareil cardiovasculaire et diminuent les effets vasoconstricteurs périphériques. Ils risquent de provoquer bradycardie et somnolence.
@@ -551,62 +676,245 @@
 INDICATIONS ET SURVEILLANCE
 Les antihypertenseurs diminuent les chiffres des pressions artérielles systolique (maxima) et diastolique (minima) afin de prévenir les complications de l'hypertension. Du fait que certaines d'entre elles n'apparaissent qu'après des dizaines d'années, le traitement est en général de longue durée.
 Une surveillance à intervalles réguliers s'impose pour vérifier l'efficacité du traitement, l'absence d'une chute de pression excessive, l'absence d'apparition d'effets indésirables.
-Diurétiques
-Médicament augmentant l'excrétion urinaire de l'organisme, utilisé dans le traitement de l'hypertension artérielle et des œdèmes.
-Formes principales
-Il existe trois types de diurétiques, qui agissent chacun sur un segment du néphron (unité fonctionnelle du rein) : les diurétiques thiazidiques (bendrofluméthiazide, chlortalidone, clopamide, hydrochlorothiazide, xipamide), les diurétiques de l'anse (bumétanide, furosémide) et les diurétiques d'épargne potassique (amiloride, triamtérène, antialdostérones tels que le canrénoate de potassium et la spironolactone). Le mécanisme d'action général des diurétiques consiste à favoriser l'élimination des ions du plasma sanguin (surtout le sodium et le chlore), provoquant un phénomène d'osmose qui entraîne dans l'urine l'eau du plasma sanguin.
-Indications et contre-indications
-Les principales indications des diurétiques sont l'hypertension artérielle et les œdèmes dus à une insuffisance cardiaque, à une maladie rénale ou à une cirrhose hépatique. L'emploi des médicaments diurétiques dans les régimes amaigrissants n'a pas d'efficacité réelle : il provoque une perte d'eau, parfois néfaste, mais aucune perte de graisse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Répertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Système cardiovasculaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Diurétiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médicament augmentant l'excrétion urinaire de l'organisme, utilisé dans le traitement de l'hypertension artérielle et des œdèmes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Répertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Système cardiovasculaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Diurétiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Formes principales</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe trois types de diurétiques, qui agissent chacun sur un segment du néphron (unité fonctionnelle du rein) : les diurétiques thiazidiques (bendrofluméthiazide, chlortalidone, clopamide, hydrochlorothiazide, xipamide), les diurétiques de l'anse (bumétanide, furosémide) et les diurétiques d'épargne potassique (amiloride, triamtérène, antialdostérones tels que le canrénoate de potassium et la spironolactone). Le mécanisme d'action général des diurétiques consiste à favoriser l'élimination des ions du plasma sanguin (surtout le sodium et le chlore), provoquant un phénomène d'osmose qui entraîne dans l'urine l'eau du plasma sanguin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Répertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Système cardiovasculaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Diurétiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Indications et contre-indications</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principales indications des diurétiques sont l'hypertension artérielle et les œdèmes dus à une insuffisance cardiaque, à une maladie rénale ou à une cirrhose hépatique. L'emploi des médicaments diurétiques dans les régimes amaigrissants n'a pas d'efficacité réelle : il provoque une perte d'eau, parfois néfaste, mais aucune perte de graisse.
 Les contre-indications et interactions médicamenteuses sont très nombreuses et varient selon les produits. Ainsi, les diurétiques, sauf ceux de l'anse, sont contre-indiqués en cas d'insuffisance rénale et incompatibles avec les anti-inflammatoires.
-Mode d'administration
-L'administration est habituellement orale. Les diurétiques de l'anse existent aussi sous forme injectable pour les cas d'urgence.
-Effets indésirables
-Outre l'aggravation d'une insuffisance rénale, les diurétiques peuvent avoir pour effet indésirable des anomalies des taux des ions sanguins (baisse du sodium, augmentation ou diminution du potassium), un diabète, des réactions allergiques. Les diurétiques de l'anse entraînent parfois une surdité, réversible en cas d'arrêt rapide du traitement
-Médicaments de l'hypotension
-Médicaments des troubles vasculaires
-Substances veinotropes et cappillarotropes
-Médicaments antithrombotiques
-Antihémorragiques
-Hypolipémiants</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Répertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Système cardiovasculaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Diurétiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Mode d'administration</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'administration est habituellement orale. Les diurétiques de l'anse existent aussi sous forme injectable pour les cas d'urgence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Répertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Système cardiovasculaire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Diurétiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre l'aggravation d'une insuffisance rénale, les diurétiques peuvent avoir pour effet indésirable des anomalies des taux des ions sanguins (baisse du sodium, augmentation ou diminution du potassium), un diabète, des réactions allergiques. Les diurétiques de l'anse entraînent parfois une surdité, réversible en cas d'arrêt rapide du traitement
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Répertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Système gastro-intestinal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médicaments de la pathologie gastrique et duodénale
-Spasmolytiques
-Médicaments pour le foie, la vésicule et le pancréas
-Antiémétiques
-Laxatifs
-Antidiarrhéiques
-Médicaments des affections inflammatoires de l'intestin
-Antiseptiques intestinaux
-Médicaments contre les hémorroïdes
-Spécialités AVEC corticostéroïdes : sous forme de crème en usage externe
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Médicaments contre les hémorroïdes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spécialités AVEC corticostéroïdes : sous forme de crème en usage externe
  - Xylocaïne  (contient de la lidocaïne pour son effet anesthésiant)
  - Rectovasol
 Spécialités SANS corticostéroïdes : sous forme de crème en usage externe
@@ -622,287 +930,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Système uro-génital</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Médicaments utilisés dans les problèmes vésicaux
-Médicaments utilisés dans l'hypertrophie bénigne de la prostate
-Médicaments utilisés dans l'impuissance
-Divers</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Système respiratoire</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Médicaments dans l'asthme et la BPCO
-Antitussifs, mucolytiques et expectorants
-Analeptiques respiratoires
-Médicaments des rhinites et sinusites</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Douleur et inflammation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Analgésiques - antipyrétiques
-Anti-inflammatoires non stéroïdiens
-Substances diverses utilisées dans des pathologies ostéo-articulaires
-Analgésiques morphiniques
-Antagonistes morphiniques
-Contrôle de la douleur en soins palliatifs</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Système nerveux</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Hypnotiques, sédatifs, anxiolytiques
-Antipsychotiques
-Antidépresseurs
-Stimulants centraux
-Antiparkinsonniens
-Antiépileptiques
-Antimigraineux
-Antihistaminiques H1
-Inhibiteurs des cholinestérases
-Médicaments de la maladie d'Alzheimer</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Système hormonal</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Glucocorticoïdes
-Médicaments de la thyroïde
-Hormones sexuelles
-Médicaments du diabète
-Autres médicaments du système hormonal</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Infections</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Antibactériens
-Antimycosiques
-Antiparasitaires
-Antiviraux</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Immunité</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Vaccins, immunoglobulines et sérums
-Immunomodulateurs et immunosuppresseurs</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Médicaments antitumoraux</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Agents alkylants
-Antimétabolites
-Antibiotiques antitumoraux
-Inhibiteurs de la topo-isomérase
-Inhibiteurs des microtubules
-Anticorps monoclonaux
-Antitumoraux divers</t>
-        </is>
-      </c>
-    </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
+          <t>Répertoire_de_la_pharmacologie</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -917,126 +951,18 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Minéraux, vitamines et toniques</t>
+          <t>Médicaments divers</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Minéraux
-Vitamines
-Toniques</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Usage externe</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Médicaments à usage dermatologique
-Médicaments à usage ophtalmique
-Médicaments à usage otique
-Médicaments des affections bucco-pharyngées
-Médicaments des affections vulvo-vaginales
-Anesthésiques locaux</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Agents de diagnostic</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Agents de radiodiagnostic
-Agents de diagnostic par résonance magnétique
-Autres agents de diagnostic</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9pertoire_de_la_pharmacologie</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Médicaments divers</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médicaments utilisés dans l'obésité
-Médicaments utilisés dans l'alcoolisme
-Médicaments utilisés dans le tabagisme
-Médicaments des états spastiques
-Médicaments utilisés comme désensibilisants
-Médicaments agissant sur la musculature utérine
-Médicaments utilisés en anesthésie
-Médicaments utilisés dans l'hyperkaliémie
-Diphosphonates
-Ranélate de strontium
-Médicaments utilisés dans des déficits enzymatiques
-Chélateurs du phosphate
-Alprostadil
-Bosentan
-Cholinomimétiques
- Portail de la médecine   Portail de la pharmacie                    </t>
+          <t>Cholinomimétiques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Portail de la médecine   Portail de la pharmacie                    </t>
         </is>
       </c>
     </row>
